--- a/逆水寒账号密码备忘.xlsx
+++ b/逆水寒账号密码备忘.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,24 @@
   </si>
   <si>
     <t>魏林的主账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eyeyou@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pyq18227593279</t>
+  </si>
+  <si>
+    <t>小桥的副账号</t>
+  </si>
+  <si>
+    <t>weepnot@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weilin123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D4"/>
+  <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -491,14 +509,35 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>